--- a/data/processed/M&A.xlsx
+++ b/data/processed/M&A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t xml:space="preserve">EQUIPO</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">AÑO</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSG</t>
   </si>
   <si>
@@ -44,6 +47,21 @@
     <t xml:space="preserve">Minority stake 12.5%</t>
   </si>
   <si>
+    <t xml:space="preserve">Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49ERS ENTERPRISES PTY LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minority stake unknown %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYNASTY EQUITY PARTNERS MANAGEMENT LLC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Everton</t>
   </si>
   <si>
@@ -53,12 +71,18 @@
     <t xml:space="preserve">Institutional buy-out 94.1%</t>
   </si>
   <si>
+    <t xml:space="preserve">FC Lorient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK KNIGHT FOOTBALL AND ENTERTAINMENT LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minority stake 33%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bournemouth</t>
   </si>
   <si>
-    <t xml:space="preserve">BLACK KNIGHT FOOTBALL AND ENTERTAINMENT LP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acquisition 100%</t>
   </si>
   <si>
@@ -71,6 +95,33 @@
     <t xml:space="preserve">Acquisition increased from 86.801% to 100% Bid 2 – Increased offer</t>
   </si>
   <si>
+    <t xml:space="preserve">AC Milan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN STREET ADVISORS LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institutional buy-out unknown majority stake %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Oviedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO DE NEGOCIOS PACHUCA SA DE CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition 51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palermo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITY FOOTBALL GROUP LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition unknown majority stake %</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chelsea</t>
   </si>
   <si>
@@ -86,6 +137,15 @@
     <t xml:space="preserve">Acquisition 80%</t>
   </si>
   <si>
+    <t xml:space="preserve">Ascoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORTH SIXTH GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minority stake 10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Borussia Dortmund</t>
   </si>
   <si>
@@ -104,6 +164,18 @@
     <t xml:space="preserve">Minority stake 0.6%</t>
   </si>
   <si>
+    <t xml:space="preserve">Genoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAVEMAKER PARTNERS LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMECHANGER 20 LTD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Burnley</t>
   </si>
   <si>
@@ -131,6 +203,15 @@
     <t xml:space="preserve">Acquisition 86.6%</t>
   </si>
   <si>
+    <t xml:space="preserve">Toulouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDBIRD CAPITAL PARTNERS MANAGEMENT LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institutional buy-out 85%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juventus</t>
   </si>
   <si>
@@ -146,15 +227,39 @@
     <t xml:space="preserve">Minority stake 3.01%</t>
   </si>
   <si>
+    <t xml:space="preserve">Elche CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE CLUB 2019 SL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niza</t>
   </si>
   <si>
     <t xml:space="preserve">INEOS GROUP LTD</t>
   </si>
   <si>
+    <t xml:space="preserve">BLUE HEAVEN HOLDINGS LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition increased from 68.6% to 77.2%</t>
+  </si>
+  <si>
     <t xml:space="preserve">WORLDQUANT LLC</t>
   </si>
   <si>
+    <t xml:space="preserve">Como</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENT ENTERTAINMENT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFCB ENTERPRISES LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition increased from 75% to 100%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inter Milan</t>
   </si>
   <si>
@@ -164,6 +269,9 @@
     <t xml:space="preserve">Minority stake 31.05%</t>
   </si>
   <si>
+    <t xml:space="preserve">LIBEREUM HOLDING BV</t>
+  </si>
+  <si>
     <t xml:space="preserve">LINDSELL TRAIN LTD</t>
   </si>
   <si>
@@ -194,6 +302,15 @@
     <t xml:space="preserve">Minority stake 0.13%</t>
   </si>
   <si>
+    <t xml:space="preserve">Acquisition increased from 49.9% to 68.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRICOFER ITALIA SPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition 90%</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIMENSIONAL HOLDINGS INC.</t>
   </si>
   <si>
@@ -206,24 +323,72 @@
     <t xml:space="preserve">Minority stake 15%</t>
   </si>
   <si>
+    <t xml:space="preserve">Racing Ferrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELITE ADMINISTRACION Y GESTION SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minority stake 39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition 88.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">LANDER HOLDINGS CO., LTD</t>
   </si>
   <si>
+    <t xml:space="preserve">Albacete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKYLINE INTERNATIONAL LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition 96.04%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASER HOLDING PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition increased from 50% to 100%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nottingham Forest</t>
   </si>
   <si>
     <t xml:space="preserve">NF FOOTBALL INVESTMENTS LTD</t>
   </si>
   <si>
-    <t xml:space="preserve">AC Milan</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROSSONERI SPORT INVESTMENT LUXEMBOURG SARL</t>
   </si>
   <si>
     <t xml:space="preserve">Acquisition 99.93%</t>
   </si>
   <si>
+    <t xml:space="preserve">LOSC Lille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L HOLDING SASU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition 95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEONORA SPORT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alavés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASKI BASKONIA SAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition unknown stake %</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minority stake increased from 5.02% to 10.01%</t>
   </si>
   <si>
@@ -248,6 +413,12 @@
     <t xml:space="preserve">SOLFERINO SARL</t>
   </si>
   <si>
+    <t xml:space="preserve">PEAK6 INVESTMENTS LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minority stake 25%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acquisition 54%</t>
   </si>
   <si>
@@ -284,19 +455,25 @@
     <t xml:space="preserve">Minority stake increased from 2.201% to 5.02%</t>
   </si>
   <si>
+    <t xml:space="preserve">Real Zaragoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDACION ZARAGOZA 2032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition 72%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cagliari</t>
   </si>
   <si>
     <t xml:space="preserve">FLUORSID GROUP SRL</t>
   </si>
   <si>
-    <t xml:space="preserve">Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEONORA SPORT LTD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acquisition 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARWOOD CAPITAL GROUP MANAGEMENT LLC</t>
   </si>
 </sst>
 </file>
@@ -658,16 +835,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -681,51 +861,58 @@
       <c r="G2" t="n">
         <v>2023</v>
       </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>641.276380780082</v>
+        <v>193.222</v>
       </c>
       <c r="E3" t="n">
-        <v>94.1</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45184</v>
+        <v>45250</v>
       </c>
       <c r="G3" t="n">
         <v>2023</v>
       </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="n">
-        <v>139.701244268185</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" s="1" t="n">
-        <v>44908</v>
+        <v>45197</v>
       </c>
       <c r="G4" t="n">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -739,16 +926,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>37.35</v>
+        <v>641.276380780082</v>
       </c>
       <c r="E5" t="n">
-        <v>13.199</v>
+        <v>94.1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44818</v>
+        <v>45184</v>
       </c>
       <c r="G5" t="n">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -759,42 +949,46 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5002.32149078169</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D6"/>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>44711</v>
+        <v>44939</v>
       </c>
       <c r="G6" t="n">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>119.313129165615</v>
+        <v>139.701244268185</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44565</v>
+        <v>44908</v>
       </c>
       <c r="G7" t="n">
         <v>2022</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -808,660 +1002,737 @@
         <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>1.281</v>
+        <v>37.35</v>
       </c>
       <c r="E8" t="n">
-        <v>0.27</v>
+        <v>13.199</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>44466</v>
+        <v>44818</v>
       </c>
       <c r="G8" t="n">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>2.751</v>
+        <v>1200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.58</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44466</v>
+        <v>44804</v>
       </c>
       <c r="G9" t="n">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.884</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44463</v>
+        <v>44754</v>
       </c>
       <c r="G10" t="n">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
-        <v>218.727353735325</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44196</v>
+        <v>44746</v>
       </c>
       <c r="G11" t="n">
-        <v>2020</v>
+        <v>2022</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5002.32149078169</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>44711</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H12" t="n">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>2.105</v>
+        <v>119.313129165615</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44120</v>
+        <v>44565</v>
       </c>
       <c r="G13" t="n">
-        <v>2020</v>
+        <v>2022</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>2.727</v>
+        <v>6.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.57</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44105</v>
+        <v>44487</v>
       </c>
       <c r="G14" t="n">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>199</v>
+        <v>1.281</v>
       </c>
       <c r="E15" t="n">
-        <v>86.6</v>
+        <v>0.27</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44060</v>
+        <v>44466</v>
       </c>
       <c r="G15" t="n">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>1.606</v>
+        <v>2.751</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12</v>
+        <v>0.58</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>43886</v>
+        <v>44466</v>
       </c>
       <c r="G16" t="n">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>3.938</v>
+        <v>2.884</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>43822</v>
+        <v>44463</v>
       </c>
       <c r="G17" t="n">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="H17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>23.29</v>
+        <v>150</v>
       </c>
       <c r="E18" t="n">
-        <v>3.01</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>43804</v>
+        <v>44461</v>
       </c>
       <c r="G18" t="n">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="H18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="n">
-        <v>97.6750699321783</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19" s="1" t="n">
-        <v>43703</v>
+        <v>44440</v>
       </c>
       <c r="G19" t="n">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>1.541</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>0.12</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>43598</v>
+        <v>44347</v>
       </c>
       <c r="G20" t="n">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>150</v>
+        <v>218.727353735325</v>
       </c>
       <c r="E21" t="n">
-        <v>31.05</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>43490</v>
+        <v>44196</v>
       </c>
       <c r="G21" t="n">
-        <v>2019</v>
+        <v>2020</v>
+      </c>
+      <c r="H21" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>12.032</v>
+        <v>0.165</v>
       </c>
       <c r="E22" t="n">
-        <v>1.288</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>43398</v>
+        <v>44146</v>
       </c>
       <c r="G22" t="n">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D23" t="n">
-        <v>1.679</v>
+        <v>2.105</v>
       </c>
       <c r="E23" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>43381</v>
+        <v>44120</v>
       </c>
       <c r="G23" t="n">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="H23" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2.727</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>0.57</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>43371</v>
+        <v>44105</v>
       </c>
       <c r="G24" t="n">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24</v>
+        <v>199</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08</v>
+        <v>86.6</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>43368</v>
+        <v>44060</v>
       </c>
       <c r="G25" t="n">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D26" t="n">
-        <v>672.396941209849</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>32.91</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>43368</v>
+        <v>44032</v>
       </c>
       <c r="G26" t="n">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D27" t="n">
-        <v>2.071</v>
+        <v>1.606</v>
       </c>
       <c r="E27" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>43364</v>
+        <v>43886</v>
       </c>
       <c r="G27" t="n">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="H27" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>16.07</v>
+        <v>3.938</v>
       </c>
       <c r="E28" t="n">
-        <v>3.01</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>43151</v>
+        <v>43822</v>
       </c>
       <c r="G28" t="n">
-        <v>2018</v>
+        <v>2019</v>
+      </c>
+      <c r="H28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D29" t="n">
-        <v>51.87</v>
+        <v>23.29</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>3.01</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>43145</v>
+        <v>43804</v>
       </c>
       <c r="G29" t="n">
-        <v>2018</v>
+        <v>2019</v>
+      </c>
+      <c r="H29" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>176.08286214227</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>42961</v>
+        <v>43802</v>
       </c>
       <c r="G30" t="n">
-        <v>2017</v>
+        <v>2019</v>
+      </c>
+      <c r="H30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
-        <v>58.0923191811618</v>
+        <v>97.6750699321783</v>
       </c>
       <c r="E31" t="n">
         <v>100</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>42873</v>
+        <v>43703</v>
       </c>
       <c r="G31" t="n">
-        <v>2017</v>
+        <v>2019</v>
+      </c>
+      <c r="H31" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="n">
-        <v>740</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D32"/>
       <c r="E32" t="n">
-        <v>99.93</v>
+        <v>8.6</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>42838</v>
+        <v>43622</v>
       </c>
       <c r="G32" t="n">
-        <v>2017</v>
+        <v>2019</v>
+      </c>
+      <c r="H32" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>43598</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H33" t="n">
         <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>42548</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2016</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>9.1</v>
+        <v>0.85</v>
       </c>
       <c r="E34" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>42543</v>
+        <v>43559</v>
       </c>
       <c r="G34" t="n">
-        <v>2016</v>
+        <v>2019</v>
+      </c>
+      <c r="H34" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="n">
-        <v>37</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D35"/>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>42513</v>
+        <v>43493</v>
       </c>
       <c r="G35" t="n">
-        <v>2016</v>
+        <v>2019</v>
+      </c>
+      <c r="H35" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
-        <v>100</v>
+        <v>31.05</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>42513</v>
+        <v>43490</v>
       </c>
       <c r="G36" t="n">
-        <v>2016</v>
+        <v>2019</v>
+      </c>
+      <c r="H36" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -1469,206 +1740,979 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="n">
-        <v>17.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D37"/>
       <c r="E37" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>42311</v>
+        <v>43460</v>
       </c>
       <c r="G37" t="n">
-        <v>2015</v>
+        <v>2018</v>
+      </c>
+      <c r="H37" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D38" t="n">
-        <v>3.25</v>
+        <v>12.032</v>
       </c>
       <c r="E38" t="n">
-        <v>15.66</v>
+        <v>1.288</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>42121</v>
+        <v>43398</v>
       </c>
       <c r="G38" t="n">
-        <v>2015</v>
+        <v>2018</v>
+      </c>
+      <c r="H38" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D39" t="n">
-        <v>1.64</v>
+        <v>1.679</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>42090</v>
+        <v>43381</v>
       </c>
       <c r="G39" t="n">
-        <v>2015</v>
+        <v>2018</v>
+      </c>
+      <c r="H39" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>42075</v>
+        <v>43371</v>
       </c>
       <c r="G40" t="n">
-        <v>2015</v>
+        <v>2018</v>
+      </c>
+      <c r="H40" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D41" t="n">
-        <v>1.946</v>
+        <v>1.24</v>
       </c>
       <c r="E41" t="n">
-        <v>0.51</v>
+        <v>0.08</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>42061</v>
+        <v>43368</v>
       </c>
       <c r="G41" t="n">
-        <v>2015</v>
+        <v>2018</v>
+      </c>
+      <c r="H41" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D42" t="n">
-        <v>256.38</v>
+        <v>672.396941209849</v>
       </c>
       <c r="E42" t="n">
-        <v>70.06</v>
+        <v>32.91</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>41938</v>
+        <v>43368</v>
       </c>
       <c r="G42" t="n">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="H42" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D43" t="n">
-        <v>6.42</v>
+        <v>2.071</v>
       </c>
       <c r="E43" t="n">
-        <v>2.819</v>
+        <v>0.13</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>41925</v>
+        <v>43364</v>
       </c>
       <c r="G43" t="n">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="H43" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="n">
-        <v>45</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D44"/>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>18.7</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>41809</v>
+        <v>43354</v>
       </c>
       <c r="G44" t="n">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="H44" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" t="n">
+        <v>98</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" t="n">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>43284</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" t="n">
+        <v>90</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>43284</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>43244</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>43151</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>43145</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" t="n">
+        <v>39</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>43106</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>42970</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H51" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="n">
+        <v>176.08286214227</v>
+      </c>
+      <c r="E52" t="n">
+        <v>80</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>42961</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H52" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="n">
+        <v>96.04</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>42933</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H53" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>42878</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H54" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="n">
+        <v>58.0923191811618</v>
+      </c>
+      <c r="E55" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H55" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="n">
+        <v>740</v>
+      </c>
+      <c r="E56" t="n">
+        <v>99.93</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>42838</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H56" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="n">
+        <v>95</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>42760</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H57" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="n">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>42621</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H58" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" s="1" t="n">
+        <v>42584</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H59" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>42548</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H60" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>26</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>42543</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H61" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>42513</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H62" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>42513</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H63" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="n">
+        <v>25</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>42315</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H64" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>54</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>42311</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H65" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>42121</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H66" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>42090</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H67" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>42075</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H68" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.946</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>42061</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H69" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" t="n">
+        <v>256.38</v>
+      </c>
+      <c r="E70" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>41938</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H70" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>41925</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H71" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="n">
+        <v>72</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>41844</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H72" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="n">
+        <v>45</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>41809</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H73" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="n">
         <v>42.297469944718</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E74" t="n">
         <v>75</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F74" s="1" t="n">
         <v>41737</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G74" t="n">
         <v>2014</v>
+      </c>
+      <c r="H74" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75" s="1" t="n">
+        <v>41724</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H75" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/M&A.xlsx
+++ b/data/processed/M&A.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
-  <si>
-    <t xml:space="preserve">EQUIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO_DEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALOR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+  <si>
+    <t xml:space="preserve">TEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAL_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">PART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AÑO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">PSG</t>
@@ -838,16 +841,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -864,23 +870,22 @@
       <c r="H2" t="n">
         <v>5</v>
       </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>193.222</v>
       </c>
-      <c r="E3" t="n">
-        <v>56</v>
-      </c>
+      <c r="E3"/>
       <c r="F3" s="1" t="n">
         <v>45250</v>
       </c>
@@ -890,16 +895,19 @@
       <c r="H3" t="n">
         <v>6</v>
       </c>
+      <c r="I3" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>25</v>
@@ -914,16 +922,17 @@
       <c r="H4" t="n">
         <v>7</v>
       </c>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>641.276380780082</v>
@@ -940,16 +949,17 @@
       <c r="H5" t="n">
         <v>8</v>
       </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
@@ -964,16 +974,17 @@
       <c r="H6" t="n">
         <v>10</v>
       </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>139.701244268185</v>
@@ -990,16 +1001,17 @@
       <c r="H7" t="n">
         <v>11</v>
       </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>37.35</v>
@@ -1016,23 +1028,22 @@
       <c r="H8" t="n">
         <v>12</v>
       </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>1200</v>
       </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
+      <c r="E9"/>
       <c r="F9" s="1" t="n">
         <v>44804</v>
       </c>
@@ -1042,16 +1053,19 @@
       <c r="H9" t="n">
         <v>13</v>
       </c>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
@@ -1066,23 +1080,22 @@
       <c r="H10" t="n">
         <v>15</v>
       </c>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>13</v>
       </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" s="1" t="n">
         <v>44746</v>
       </c>
@@ -1092,16 +1105,19 @@
       <c r="H11" t="n">
         <v>16</v>
       </c>
+      <c r="I11" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
         <v>5002.32149078169</v>
@@ -1118,16 +1134,17 @@
       <c r="H12" t="n">
         <v>17</v>
       </c>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
         <v>119.313129165615</v>
@@ -1144,22 +1161,23 @@
       <c r="H13" t="n">
         <v>18</v>
       </c>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
         <v>6.2</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>44487</v>
@@ -1170,16 +1188,19 @@
       <c r="H14" t="n">
         <v>19</v>
       </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
         <v>1.281</v>
@@ -1196,16 +1217,17 @@
       <c r="H15" t="n">
         <v>20</v>
       </c>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
         <v>2.751</v>
@@ -1222,16 +1244,17 @@
       <c r="H16" t="n">
         <v>21</v>
       </c>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>2.884</v>
@@ -1248,23 +1271,22 @@
       <c r="H17" t="n">
         <v>22</v>
       </c>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>150</v>
       </c>
-      <c r="E18" t="n">
-        <v>80</v>
-      </c>
+      <c r="E18"/>
       <c r="F18" s="1" t="n">
         <v>44461</v>
       </c>
@@ -1274,16 +1296,19 @@
       <c r="H18" t="n">
         <v>23</v>
       </c>
+      <c r="I18" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1296,16 +1321,17 @@
       <c r="H19" t="n">
         <v>24</v>
       </c>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
         <v>40</v>
@@ -1322,16 +1348,17 @@
       <c r="H20" t="n">
         <v>25</v>
       </c>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" t="n">
         <v>218.727353735325</v>
@@ -1348,16 +1375,17 @@
       <c r="H21" t="n">
         <v>26</v>
       </c>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" t="n">
         <v>0.165</v>
@@ -1374,16 +1402,17 @@
       <c r="H22" t="n">
         <v>27</v>
       </c>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
         <v>2.105</v>
@@ -1400,16 +1429,17 @@
       <c r="H23" t="n">
         <v>28</v>
       </c>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="n">
         <v>2.727</v>
@@ -1426,16 +1456,17 @@
       <c r="H24" t="n">
         <v>30</v>
       </c>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" t="n">
         <v>199</v>
@@ -1452,16 +1483,17 @@
       <c r="H25" t="n">
         <v>31</v>
       </c>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="n">
         <v>20</v>
@@ -1478,16 +1510,17 @@
       <c r="H26" t="n">
         <v>32</v>
       </c>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" t="n">
         <v>1.606</v>
@@ -1504,16 +1537,17 @@
       <c r="H27" t="n">
         <v>33</v>
       </c>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
         <v>3.938</v>
@@ -1530,16 +1564,17 @@
       <c r="H28" t="n">
         <v>34</v>
       </c>
+      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" t="n">
         <v>23.29</v>
@@ -1556,23 +1591,22 @@
       <c r="H29" t="n">
         <v>35</v>
       </c>
+      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
       </c>
-      <c r="E30" t="n">
-        <v>70</v>
-      </c>
+      <c r="E30"/>
       <c r="F30" s="1" t="n">
         <v>43802</v>
       </c>
@@ -1582,16 +1616,19 @@
       <c r="H30" t="n">
         <v>36</v>
       </c>
+      <c r="I30" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
         <v>97.6750699321783</v>
@@ -1608,16 +1645,17 @@
       <c r="H31" t="n">
         <v>37</v>
       </c>
+      <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
@@ -1632,16 +1670,17 @@
       <c r="H32" t="n">
         <v>38</v>
       </c>
+      <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" t="n">
         <v>1.541</v>
@@ -1658,16 +1697,17 @@
       <c r="H33" t="n">
         <v>39</v>
       </c>
+      <c r="I33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
         <v>0.85</v>
@@ -1684,16 +1724,17 @@
       <c r="H34" t="n">
         <v>40</v>
       </c>
+      <c r="I34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
@@ -1708,16 +1749,17 @@
       <c r="H35" t="n">
         <v>41</v>
       </c>
+      <c r="I35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" t="n">
         <v>150</v>
@@ -1734,16 +1776,17 @@
       <c r="H36" t="n">
         <v>42</v>
       </c>
+      <c r="I36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="n">
@@ -1758,16 +1801,17 @@
       <c r="H37" t="n">
         <v>43</v>
       </c>
+      <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" t="n">
         <v>12.032</v>
@@ -1784,16 +1828,17 @@
       <c r="H38" t="n">
         <v>44</v>
       </c>
+      <c r="I38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" t="n">
         <v>1.679</v>
@@ -1810,16 +1855,17 @@
       <c r="H39" t="n">
         <v>45</v>
       </c>
+      <c r="I39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
@@ -1836,16 +1882,17 @@
       <c r="H40" t="n">
         <v>46</v>
       </c>
+      <c r="I40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" t="n">
         <v>1.24</v>
@@ -1862,16 +1909,17 @@
       <c r="H41" t="n">
         <v>47</v>
       </c>
+      <c r="I41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" t="n">
         <v>672.396941209849</v>
@@ -1888,16 +1936,17 @@
       <c r="H42" t="n">
         <v>48</v>
       </c>
+      <c r="I42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D43" t="n">
         <v>2.071</v>
@@ -1914,16 +1963,17 @@
       <c r="H43" t="n">
         <v>49</v>
       </c>
+      <c r="I43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="n">
@@ -1938,16 +1988,17 @@
       <c r="H44" t="n">
         <v>50</v>
       </c>
+      <c r="I44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="n">
@@ -1962,16 +2013,17 @@
       <c r="H45" t="n">
         <v>51</v>
       </c>
+      <c r="I45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="n">
@@ -1986,16 +2038,17 @@
       <c r="H46" t="n">
         <v>52</v>
       </c>
+      <c r="I46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="n">
@@ -2010,16 +2063,17 @@
       <c r="H47" t="n">
         <v>53</v>
       </c>
+      <c r="I47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D48" t="n">
         <v>16.07</v>
@@ -2036,16 +2090,17 @@
       <c r="H48" t="n">
         <v>54</v>
       </c>
+      <c r="I48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" t="n">
         <v>51.87</v>
@@ -2062,16 +2117,17 @@
       <c r="H49" t="n">
         <v>55</v>
       </c>
+      <c r="I49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="n">
@@ -2086,16 +2142,17 @@
       <c r="H50" t="n">
         <v>56</v>
       </c>
+      <c r="I50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="n">
@@ -2110,16 +2167,17 @@
       <c r="H51" t="n">
         <v>58</v>
       </c>
+      <c r="I51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" t="n">
         <v>176.08286214227</v>
@@ -2136,16 +2194,17 @@
       <c r="H52" t="n">
         <v>59</v>
       </c>
+      <c r="I52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="n">
@@ -2160,16 +2219,17 @@
       <c r="H53" t="n">
         <v>60</v>
       </c>
+      <c r="I53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="n">
@@ -2184,16 +2244,17 @@
       <c r="H54" t="n">
         <v>61</v>
       </c>
+      <c r="I54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
         <v>58.0923191811618</v>
@@ -2210,16 +2271,17 @@
       <c r="H55" t="n">
         <v>62</v>
       </c>
+      <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" t="n">
         <v>740</v>
@@ -2236,16 +2298,17 @@
       <c r="H56" t="n">
         <v>63</v>
       </c>
+      <c r="I56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="n">
@@ -2260,16 +2323,17 @@
       <c r="H57" t="n">
         <v>64</v>
       </c>
+      <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="n">
@@ -2284,16 +2348,17 @@
       <c r="H58" t="n">
         <v>65</v>
       </c>
+      <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -2306,16 +2371,17 @@
       <c r="H59" t="n">
         <v>66</v>
       </c>
+      <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" t="n">
         <v>87.5</v>
@@ -2332,16 +2398,17 @@
       <c r="H60" t="n">
         <v>67</v>
       </c>
+      <c r="I60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D61" t="n">
         <v>9.1</v>
@@ -2358,16 +2425,17 @@
       <c r="H61" t="n">
         <v>68</v>
       </c>
+      <c r="I61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D62" t="n">
         <v>37</v>
@@ -2384,19 +2452,20 @@
       <c r="H62" t="n">
         <v>69</v>
       </c>
+      <c r="I62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="E63" t="n">
         <v>100</v>
@@ -2410,16 +2479,17 @@
       <c r="H63" t="n">
         <v>70</v>
       </c>
+      <c r="I63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="n">
@@ -2434,16 +2504,17 @@
       <c r="H64" t="n">
         <v>71</v>
       </c>
+      <c r="I64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" t="n">
         <v>17.8</v>
@@ -2460,16 +2531,17 @@
       <c r="H65" t="n">
         <v>72</v>
       </c>
+      <c r="I65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" t="n">
         <v>3.25</v>
@@ -2486,16 +2558,17 @@
       <c r="H66" t="n">
         <v>73</v>
       </c>
+      <c r="I66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" t="n">
         <v>1.64</v>
@@ -2512,16 +2585,17 @@
       <c r="H67" t="n">
         <v>74</v>
       </c>
+      <c r="I67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" t="n">
         <v>1.86</v>
@@ -2538,16 +2612,17 @@
       <c r="H68" t="n">
         <v>75</v>
       </c>
+      <c r="I68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D69" t="n">
         <v>1.946</v>
@@ -2564,16 +2639,17 @@
       <c r="H69" t="n">
         <v>76</v>
       </c>
+      <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D70" t="n">
         <v>256.38</v>
@@ -2590,16 +2666,17 @@
       <c r="H70" t="n">
         <v>77</v>
       </c>
+      <c r="I70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D71" t="n">
         <v>6.42</v>
@@ -2616,16 +2693,17 @@
       <c r="H71" t="n">
         <v>78</v>
       </c>
+      <c r="I71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="n">
@@ -2640,16 +2718,17 @@
       <c r="H72" t="n">
         <v>79</v>
       </c>
+      <c r="I72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D73" t="n">
         <v>45</v>
@@ -2666,16 +2745,17 @@
       <c r="H73" t="n">
         <v>80</v>
       </c>
+      <c r="I73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" t="n">
         <v>42.297469944718</v>
@@ -2692,16 +2772,17 @@
       <c r="H74" t="n">
         <v>81</v>
       </c>
+      <c r="I74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -2714,6 +2795,7 @@
       <c r="H75" t="n">
         <v>82</v>
       </c>
+      <c r="I75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
